--- a/src/test/resources/testData/GasMileageTestData.xlsx
+++ b/src/test/resources/testData/GasMileageTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekchicago-1/Desktop/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Execute</t>
   </si>
@@ -58,12 +58,16 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>13.33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -456,6 +460,12 @@
       <c r="D2">
         <v>75</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">

--- a/src/test/resources/testData/GasMileageTestData.xlsx
+++ b/src/test/resources/testData/GasMileageTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekchicago-1/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekchicago-1/Desktop/cybertek21-cucumber-junit/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72F5FBC9-1085-5A48-A6B8-9586B595D660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD90C136-32F8-4747-B5D3-032991119B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{8028576A-A7ED-0042-911B-A020A42E0A07}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Execute</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>13.33</t>
+  </si>
+  <si>
+    <t>PASS!</t>
+  </si>
+  <si>
+    <t>03:16 PM</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,6 +472,12 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">

--- a/src/test/resources/testData/GasMileageTestData.xlsx
+++ b/src/test/resources/testData/GasMileageTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekchicago-1/Desktop/cybertek21-cucumber-junit/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD90C136-32F8-4747-B5D3-032991119B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5CF631-1CB5-1C4B-A4D9-9D9716546446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{8028576A-A7ED-0042-911B-A020A42E0A07}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Execute</t>
   </si>
@@ -66,7 +66,49 @@
     <t>PASS!</t>
   </si>
   <si>
-    <t>03:16 PM</t>
+    <t>03:26:08 PM</t>
+  </si>
+  <si>
+    <t>16.67</t>
+  </si>
+  <si>
+    <t>03:26:09 PM</t>
+  </si>
+  <si>
+    <t>19.18</t>
+  </si>
+  <si>
+    <t>03:26:11 PM</t>
+  </si>
+  <si>
+    <t>33.33</t>
+  </si>
+  <si>
+    <t>03:26:12 PM</t>
+  </si>
+  <si>
+    <t>03:26:13 PM</t>
+  </si>
+  <si>
+    <t>03:26:14 PM</t>
+  </si>
+  <si>
+    <t>03:26:17 PM</t>
+  </si>
+  <si>
+    <t>03:26:18 PM</t>
+  </si>
+  <si>
+    <t>03:26:20 PM</t>
+  </si>
+  <si>
+    <t>03:26:21 PM</t>
+  </si>
+  <si>
+    <t>03:26:22 PM</t>
+  </si>
+  <si>
+    <t>03:26:23 PM</t>
   </si>
 </sst>
 </file>
@@ -419,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308B2100-8BB9-8247-8903-802FB4DFEBCD}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,6 +534,18 @@
       <c r="D3">
         <v>60</v>
       </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -506,6 +560,18 @@
       <c r="D4">
         <v>150</v>
       </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -519,6 +585,226 @@
       </c>
       <c r="D5">
         <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>123000</v>
+      </c>
+      <c r="C6">
+        <v>122000</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>15000</v>
+      </c>
+      <c r="C7">
+        <v>14000</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>9877</v>
+      </c>
+      <c r="C8">
+        <v>7000</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>123000</v>
+      </c>
+      <c r="C10">
+        <v>122000</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>15000</v>
+      </c>
+      <c r="C11">
+        <v>14000</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>9877</v>
+      </c>
+      <c r="C12">
+        <v>7000</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>500</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/GasMileageTestData.xlsx
+++ b/src/test/resources/testData/GasMileageTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekchicago-1/Desktop/cybertek21-cucumber-junit/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5CF631-1CB5-1C4B-A4D9-9D9716546446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E201817A-EE47-3243-B728-F1D9FB8ED7DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{8028576A-A7ED-0042-911B-A020A42E0A07}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="89">
   <si>
     <t>Execute</t>
   </si>
@@ -60,55 +60,244 @@
     <t>Y</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>13.33</t>
   </si>
   <si>
     <t>PASS!</t>
   </si>
   <si>
-    <t>03:26:08 PM</t>
+    <t>03:35:35 PM</t>
   </si>
   <si>
     <t>16.67</t>
   </si>
   <si>
-    <t>03:26:09 PM</t>
+    <t>03:35:37 PM</t>
+  </si>
+  <si>
+    <t>Skip Requested!</t>
+  </si>
+  <si>
+    <t>33.33</t>
+  </si>
+  <si>
+    <t>03:35:38 PM</t>
+  </si>
+  <si>
+    <t>03:35:39 PM</t>
   </si>
   <si>
     <t>19.18</t>
   </si>
   <si>
-    <t>03:26:11 PM</t>
-  </si>
-  <si>
-    <t>33.33</t>
-  </si>
-  <si>
-    <t>03:26:12 PM</t>
-  </si>
-  <si>
-    <t>03:26:13 PM</t>
-  </si>
-  <si>
-    <t>03:26:14 PM</t>
-  </si>
-  <si>
-    <t>03:26:17 PM</t>
-  </si>
-  <si>
-    <t>03:26:18 PM</t>
-  </si>
-  <si>
-    <t>03:26:20 PM</t>
-  </si>
-  <si>
-    <t>03:26:21 PM</t>
-  </si>
-  <si>
-    <t>03:26:22 PM</t>
-  </si>
-  <si>
-    <t>03:26:23 PM</t>
+    <t>03:35:40 PM</t>
+  </si>
+  <si>
+    <t>FAIL!</t>
+  </si>
+  <si>
+    <t>03:35:41 PM</t>
+  </si>
+  <si>
+    <t>03:35:43 PM</t>
+  </si>
+  <si>
+    <t>03:35:44 PM</t>
+  </si>
+  <si>
+    <t>03:35:45 PM</t>
+  </si>
+  <si>
+    <t>03:35:46 PM</t>
+  </si>
+  <si>
+    <t>03:35:47 PM</t>
+  </si>
+  <si>
+    <t>03:35:49 PM</t>
+  </si>
+  <si>
+    <t>03:35:50 PM</t>
+  </si>
+  <si>
+    <t>03:35:51 PM</t>
+  </si>
+  <si>
+    <t>03:35:52 PM</t>
+  </si>
+  <si>
+    <t>03:35:54 PM</t>
+  </si>
+  <si>
+    <t>03:35:55 PM</t>
+  </si>
+  <si>
+    <t>03:35:56 PM</t>
+  </si>
+  <si>
+    <t>03:35:57 PM</t>
+  </si>
+  <si>
+    <t>03:35:58 PM</t>
+  </si>
+  <si>
+    <t>03:35:59 PM</t>
+  </si>
+  <si>
+    <t>03:36:01 PM</t>
+  </si>
+  <si>
+    <t>03:36:02 PM</t>
+  </si>
+  <si>
+    <t>03:36:03 PM</t>
+  </si>
+  <si>
+    <t>03:36:04 PM</t>
+  </si>
+  <si>
+    <t>03:36:05 PM</t>
+  </si>
+  <si>
+    <t>03:36:06 PM</t>
+  </si>
+  <si>
+    <t>03:36:08 PM</t>
+  </si>
+  <si>
+    <t>03:36:09 PM</t>
+  </si>
+  <si>
+    <t>03:36:10 PM</t>
+  </si>
+  <si>
+    <t>03:36:12 PM</t>
+  </si>
+  <si>
+    <t>03:36:13 PM</t>
+  </si>
+  <si>
+    <t>03:36:14 PM</t>
+  </si>
+  <si>
+    <t>03:36:15 PM</t>
+  </si>
+  <si>
+    <t>03:36:16 PM</t>
+  </si>
+  <si>
+    <t>03:36:17 PM</t>
+  </si>
+  <si>
+    <t>03:36:18 PM</t>
+  </si>
+  <si>
+    <t>03:36:19 PM</t>
+  </si>
+  <si>
+    <t>03:36:20 PM</t>
+  </si>
+  <si>
+    <t>03:36:21 PM</t>
+  </si>
+  <si>
+    <t>03:36:22 PM</t>
+  </si>
+  <si>
+    <t>03:36:23 PM</t>
+  </si>
+  <si>
+    <t>03:36:24 PM</t>
+  </si>
+  <si>
+    <t>03:36:26 PM</t>
+  </si>
+  <si>
+    <t>03:36:27 PM</t>
+  </si>
+  <si>
+    <t>03:36:28 PM</t>
+  </si>
+  <si>
+    <t>03:36:29 PM</t>
+  </si>
+  <si>
+    <t>03:36:30 PM</t>
+  </si>
+  <si>
+    <t>03:36:31 PM</t>
+  </si>
+  <si>
+    <t>03:36:32 PM</t>
+  </si>
+  <si>
+    <t>03:36:33 PM</t>
+  </si>
+  <si>
+    <t>03:36:34 PM</t>
+  </si>
+  <si>
+    <t>03:36:36 PM</t>
+  </si>
+  <si>
+    <t>03:36:37 PM</t>
+  </si>
+  <si>
+    <t>03:36:38 PM</t>
+  </si>
+  <si>
+    <t>03:36:39 PM</t>
+  </si>
+  <si>
+    <t>03:36:40 PM</t>
+  </si>
+  <si>
+    <t>03:36:42 PM</t>
+  </si>
+  <si>
+    <t>03:36:43 PM</t>
+  </si>
+  <si>
+    <t>03:36:44 PM</t>
+  </si>
+  <si>
+    <t>03:36:45 PM</t>
+  </si>
+  <si>
+    <t>03:36:46 PM</t>
+  </si>
+  <si>
+    <t>03:36:47 PM</t>
+  </si>
+  <si>
+    <t>03:36:48 PM</t>
+  </si>
+  <si>
+    <t>03:36:49 PM</t>
+  </si>
+  <si>
+    <t>03:36:50 PM</t>
+  </si>
+  <si>
+    <t>03:36:51 PM</t>
+  </si>
+  <si>
+    <t>03:36:52 PM</t>
+  </si>
+  <si>
+    <t>03:36:53 PM</t>
+  </si>
+  <si>
+    <t>03:36:54 PM</t>
+  </si>
+  <si>
+    <t>03:36:55 PM</t>
+  </si>
+  <si>
+    <t>03:36:57 PM</t>
   </si>
 </sst>
 </file>
@@ -461,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308B2100-8BB9-8247-8903-802FB4DFEBCD}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,16 +698,16 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -535,21 +724,21 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>9877</v>
@@ -560,16 +749,7 @@
       <c r="D4">
         <v>150</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -593,10 +773,10 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -613,16 +793,16 @@
         <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -639,16 +819,16 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -665,13 +845,13 @@
         <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -679,7 +859,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>500</v>
@@ -690,17 +870,8 @@
       <c r="D9">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -717,13 +888,13 @@
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -743,13 +914,13 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -757,7 +928,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>9877</v>
@@ -768,17 +939,8 @@
       <c r="D12">
         <v>150</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
       <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -801,10 +963,2074 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>123000</v>
+      </c>
+      <c r="C14">
+        <v>122000</v>
+      </c>
+      <c r="D14">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>15000</v>
+      </c>
+      <c r="C15">
+        <v>14000</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>9877</v>
+      </c>
+      <c r="C16">
+        <v>7000</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>500</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>123000</v>
+      </c>
+      <c r="C18">
+        <v>122000</v>
+      </c>
+      <c r="D18">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>15000</v>
+      </c>
+      <c r="C19">
+        <v>14000</v>
+      </c>
+      <c r="D19">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>9877</v>
+      </c>
+      <c r="C20">
+        <v>7000</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>500</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>123000</v>
+      </c>
+      <c r="C22">
+        <v>122000</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>15000</v>
+      </c>
+      <c r="C23">
+        <v>14000</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>9877</v>
+      </c>
+      <c r="C24">
+        <v>7000</v>
+      </c>
+      <c r="D24">
+        <v>150</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>500</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>123000</v>
+      </c>
+      <c r="C26">
+        <v>122000</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>15000</v>
+      </c>
+      <c r="C27">
+        <v>14000</v>
+      </c>
+      <c r="D27">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>9877</v>
+      </c>
+      <c r="C28">
+        <v>7000</v>
+      </c>
+      <c r="D28">
+        <v>150</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>500</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>123000</v>
+      </c>
+      <c r="C30">
+        <v>122000</v>
+      </c>
+      <c r="D30">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>15000</v>
+      </c>
+      <c r="C31">
+        <v>14000</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>9877</v>
+      </c>
+      <c r="C32">
+        <v>7000</v>
+      </c>
+      <c r="D32">
+        <v>150</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>500</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>123000</v>
+      </c>
+      <c r="C34">
+        <v>122000</v>
+      </c>
+      <c r="D34">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>15000</v>
+      </c>
+      <c r="C35">
+        <v>14000</v>
+      </c>
+      <c r="D35">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>9877</v>
+      </c>
+      <c r="C36">
+        <v>7000</v>
+      </c>
+      <c r="D36">
+        <v>150</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>500</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>123000</v>
+      </c>
+      <c r="C38">
+        <v>122000</v>
+      </c>
+      <c r="D38">
+        <v>75</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>15000</v>
+      </c>
+      <c r="C39">
+        <v>14000</v>
+      </c>
+      <c r="D39">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>9877</v>
+      </c>
+      <c r="C40">
+        <v>7000</v>
+      </c>
+      <c r="D40">
+        <v>150</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>500</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>123000</v>
+      </c>
+      <c r="C42">
+        <v>122000</v>
+      </c>
+      <c r="D42">
+        <v>75</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>15000</v>
+      </c>
+      <c r="C43">
+        <v>14000</v>
+      </c>
+      <c r="D43">
+        <v>60</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>9877</v>
+      </c>
+      <c r="C44">
+        <v>7000</v>
+      </c>
+      <c r="D44">
+        <v>150</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>500</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>123000</v>
+      </c>
+      <c r="C46">
+        <v>122000</v>
+      </c>
+      <c r="D46">
+        <v>75</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>15000</v>
+      </c>
+      <c r="C47">
+        <v>14000</v>
+      </c>
+      <c r="D47">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>9877</v>
+      </c>
+      <c r="C48">
+        <v>7000</v>
+      </c>
+      <c r="D48">
+        <v>150</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>500</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>123000</v>
+      </c>
+      <c r="C50">
+        <v>122000</v>
+      </c>
+      <c r="D50">
+        <v>75</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>15000</v>
+      </c>
+      <c r="C51">
+        <v>14000</v>
+      </c>
+      <c r="D51">
+        <v>60</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>9877</v>
+      </c>
+      <c r="C52">
+        <v>7000</v>
+      </c>
+      <c r="D52">
+        <v>150</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>500</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>123000</v>
+      </c>
+      <c r="C54">
+        <v>122000</v>
+      </c>
+      <c r="D54">
+        <v>75</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>15000</v>
+      </c>
+      <c r="C55">
+        <v>14000</v>
+      </c>
+      <c r="D55">
+        <v>60</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>9877</v>
+      </c>
+      <c r="C56">
+        <v>7000</v>
+      </c>
+      <c r="D56">
+        <v>150</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>500</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>123000</v>
+      </c>
+      <c r="C58">
+        <v>122000</v>
+      </c>
+      <c r="D58">
+        <v>75</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>15000</v>
+      </c>
+      <c r="C59">
+        <v>14000</v>
+      </c>
+      <c r="D59">
+        <v>60</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>9877</v>
+      </c>
+      <c r="C60">
+        <v>7000</v>
+      </c>
+      <c r="D60">
+        <v>150</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>500</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>123000</v>
+      </c>
+      <c r="C62">
+        <v>122000</v>
+      </c>
+      <c r="D62">
+        <v>75</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>15000</v>
+      </c>
+      <c r="C63">
+        <v>14000</v>
+      </c>
+      <c r="D63">
+        <v>60</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>9877</v>
+      </c>
+      <c r="C64">
+        <v>7000</v>
+      </c>
+      <c r="D64">
+        <v>150</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>500</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>123000</v>
+      </c>
+      <c r="C66">
+        <v>122000</v>
+      </c>
+      <c r="D66">
+        <v>75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>15000</v>
+      </c>
+      <c r="C67">
+        <v>14000</v>
+      </c>
+      <c r="D67">
+        <v>60</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>9877</v>
+      </c>
+      <c r="C68">
+        <v>7000</v>
+      </c>
+      <c r="D68">
+        <v>150</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>500</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>123000</v>
+      </c>
+      <c r="C70">
+        <v>122000</v>
+      </c>
+      <c r="D70">
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>15000</v>
+      </c>
+      <c r="C71">
+        <v>14000</v>
+      </c>
+      <c r="D71">
+        <v>60</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>9877</v>
+      </c>
+      <c r="C72">
+        <v>7000</v>
+      </c>
+      <c r="D72">
+        <v>150</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>500</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>123000</v>
+      </c>
+      <c r="C74">
+        <v>122000</v>
+      </c>
+      <c r="D74">
+        <v>75</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>15000</v>
+      </c>
+      <c r="C75">
+        <v>14000</v>
+      </c>
+      <c r="D75">
+        <v>60</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>9877</v>
+      </c>
+      <c r="C76">
+        <v>7000</v>
+      </c>
+      <c r="D76">
+        <v>150</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>500</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>123000</v>
+      </c>
+      <c r="C78">
+        <v>122000</v>
+      </c>
+      <c r="D78">
+        <v>75</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>15000</v>
+      </c>
+      <c r="C79">
+        <v>14000</v>
+      </c>
+      <c r="D79">
+        <v>60</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>9877</v>
+      </c>
+      <c r="C80">
+        <v>7000</v>
+      </c>
+      <c r="D80">
+        <v>150</v>
+      </c>
+      <c r="E80" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>500</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>123000</v>
+      </c>
+      <c r="C82">
+        <v>122000</v>
+      </c>
+      <c r="D82">
+        <v>75</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>15000</v>
+      </c>
+      <c r="C83">
+        <v>14000</v>
+      </c>
+      <c r="D83">
+        <v>60</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84">
+        <v>9877</v>
+      </c>
+      <c r="C84">
+        <v>7000</v>
+      </c>
+      <c r="D84">
+        <v>150</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>500</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>123000</v>
+      </c>
+      <c r="C86">
+        <v>122000</v>
+      </c>
+      <c r="D86">
+        <v>75</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87">
+        <v>15000</v>
+      </c>
+      <c r="C87">
+        <v>14000</v>
+      </c>
+      <c r="D87">
+        <v>60</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88">
+        <v>9877</v>
+      </c>
+      <c r="C88">
+        <v>7000</v>
+      </c>
+      <c r="D88">
+        <v>150</v>
+      </c>
+      <c r="G88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>500</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>123000</v>
+      </c>
+      <c r="C90">
+        <v>122000</v>
+      </c>
+      <c r="D90">
+        <v>75</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>15000</v>
+      </c>
+      <c r="C91">
+        <v>14000</v>
+      </c>
+      <c r="D91">
+        <v>60</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>9877</v>
+      </c>
+      <c r="C92">
+        <v>7000</v>
+      </c>
+      <c r="D92">
+        <v>150</v>
+      </c>
+      <c r="E92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93">
+        <v>500</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>123000</v>
+      </c>
+      <c r="C94">
+        <v>122000</v>
+      </c>
+      <c r="D94">
+        <v>75</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>15000</v>
+      </c>
+      <c r="C95">
+        <v>14000</v>
+      </c>
+      <c r="D95">
+        <v>60</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96">
+        <v>9877</v>
+      </c>
+      <c r="C96">
+        <v>7000</v>
+      </c>
+      <c r="D96">
+        <v>150</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>500</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>15</v>
+      </c>
+      <c r="E97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>123000</v>
+      </c>
+      <c r="C98">
+        <v>122000</v>
+      </c>
+      <c r="D98">
+        <v>75</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>15000</v>
+      </c>
+      <c r="C99">
+        <v>14000</v>
+      </c>
+      <c r="D99">
+        <v>60</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <v>9877</v>
+      </c>
+      <c r="C100">
+        <v>7000</v>
+      </c>
+      <c r="D100">
+        <v>150</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
